--- a/Hx.BackAdmin/App_Data/总经理关键指标排名.xlsx
+++ b/Hx.BackAdmin/App_Data/总经理关键指标排名.xlsx
@@ -17,25 +17,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>品牌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>完成率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次邀约率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>占比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅销量完成率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来厂台次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后产值完成率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅新增留档潜客到店</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅成交率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成率</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -43,64 +63,72 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>实际</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>单车附加总产值（完成率）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>续保数完成率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘性产品渗透率（免费保养（免费机油、免费保养）+延保）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总渗透率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手车评估数（销售+售后评估数）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估总数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>老客户转介绍占比=转介绍/展厅销量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>展厅新增到店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCC新增销售线索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次邀约到店率=再次/(首次+再次)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>来厂台次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>续保完成率（无数据）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二手车评估数（销售+售后评估数）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>粘性产品渗透率（免费保养（免费机油、免费保养）+延保）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>展厅成交率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单车附加总产值（完成率）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总渗透率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>转介绍占比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCC建档线索完成率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手车收购量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅二次到店率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次到店率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,50 +243,50 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,69 +593,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="4.5" style="1"/>
+    <col min="9" max="9" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="4.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>7</v>
+      <c r="N1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -644,29 +684,38 @@
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.43307086614173229" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="105" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -680,7 +729,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -693,7 +742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -706,7 +755,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hx.BackAdmin/App_Data/总经理关键指标排名.xlsx
+++ b/Hx.BackAdmin/App_Data/总经理关键指标排名.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -69,14 +69,6 @@
   <si>
     <t>续保数完成率</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>粘性产品渗透率（免费保养（免费机油、免费保养）+延保）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总渗透率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二手车评估数（销售+售后评估数）</t>
@@ -191,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -227,19 +219,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -251,7 +230,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -278,9 +257,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -593,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,14 +591,13 @@
     <col min="9" max="9" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="4.5" style="1"/>
+    <col min="12" max="12" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="4.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="7" t="s">
         <v>2</v>
@@ -639,11 +614,11 @@
       <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>21</v>
+      <c r="G1" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>10</v>
@@ -657,17 +632,14 @@
       <c r="L1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -687,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>9</v>
@@ -705,13 +677,10 @@
         <v>14</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
